--- a/data/Subset 1/Video Mosaic Grade 6 2 variables 2.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 2 variables 2.xlsx
@@ -473,7 +473,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -680,7 +680,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -726,7 +726,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -750,7 +750,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -842,7 +842,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -911,7 +911,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -934,7 +934,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -980,7 +980,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1003,7 +1003,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1026,7 +1026,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1072,7 +1072,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1118,7 +1118,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1142,7 +1142,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1188,7 +1188,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1395,7 +1395,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1490,7 +1490,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1513,7 +1513,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1837,7 +1837,7 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1883,7 +1883,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -1929,7 +1929,7 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -1952,7 +1952,7 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -1975,7 +1975,7 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2044,7 +2044,7 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2067,7 +2067,7 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2228,7 +2228,7 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2366,7 +2366,7 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2390,7 +2390,7 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2413,7 +2413,7 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
